--- a/docs/paper_experiment/FN/FN.xlsx
+++ b/docs/paper_experiment/FN/FN.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamadalab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamadalab/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/FN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC06DBED-DE62-BD41-8421-59E0758A7C95}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBDB41-1EB3-474E-B994-D4B7101FA320}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="-17540" windowWidth="27900" windowHeight="16500" xr2:uid="{E3283A29-F980-5A4F-B8BD-D15A277E7FE8}"/>
+    <workbookView xWindow="-4900" yWindow="-19280" windowWidth="27900" windowHeight="16500" activeTab="2" xr2:uid="{E3283A29-F980-5A4F-B8BD-D15A277E7FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="BM25" sheetId="1" r:id="rId1"/>
     <sheet name="edit" sheetId="2" r:id="rId2"/>
+    <sheet name="グラフ" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'BM25'!$A$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'BM25'!$A$2</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'BM25'!$A$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'BM25'!$B$1:$D$1</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'BM25'!$B$2:$D$2</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'BM25'!$B$3:$D$3</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">グラフ!$A$1</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">グラフ!$A$2</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">グラフ!$A$3</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">グラフ!$B$1:$D$1</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">グラフ!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">グラフ!$B$3:$D$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>pre</t>
     <phoneticPr fontId="1"/>
@@ -47,12 +48,20 @@
     <t>FN</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>BM25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,6 +72,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -86,17 +103,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -110,6 +134,939 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BM25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>グラフ!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.7803468208092457E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.256502890173409E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.822976878612717E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-007B-2047-8FDF-9C9A6EA87FFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>edit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>グラフ!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.14848265895953761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7557803468208055E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7557803468208055E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-007B-2047-8FDF-9C9A6EA87FFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="223295551"/>
+        <c:axId val="223297247"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="223295551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="223297247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="223297247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="223295551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F0910C-0B84-B547-8F22-458EA2E88AF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3515C793-43EF-5147-A640-94FD7BF88370}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -491,7 +1448,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -563,4 +1520,60 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DAC2E1-EFA5-794D-982D-74C30784D07B}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1">
+        <v>0.75</v>
+      </c>
+      <c r="C1">
+        <v>0.5</v>
+      </c>
+      <c r="D1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.7803468208092457E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.256502890173409E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.822976878612717E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.14848265895953761</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.7557803468208055E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.7557803468208055E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/paper_experiment/FN/FN.xlsx
+++ b/docs/paper_experiment/FN/FN.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamadalab/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/FN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mituba/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/FN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBDB41-1EB3-474E-B994-D4B7101FA320}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC2CF36-DF78-8141-B3B0-3565C7FEC283}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4900" yWindow="-19280" windowWidth="27900" windowHeight="16500" activeTab="2" xr2:uid="{E3283A29-F980-5A4F-B8BD-D15A277E7FE8}"/>
+    <workbookView xWindow="-4900" yWindow="-19280" windowWidth="27900" windowHeight="16500" activeTab="3" xr2:uid="{E3283A29-F980-5A4F-B8BD-D15A277E7FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="BM25" sheetId="1" r:id="rId1"/>
     <sheet name="edit" sheetId="2" r:id="rId2"/>
-    <sheet name="グラフ" sheetId="3" r:id="rId3"/>
+    <sheet name="JW" sheetId="4" r:id="rId3"/>
+    <sheet name="グラフ" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">グラフ!$A$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">グラフ!$A$2</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">グラフ!$A$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">グラフ!$B$1:$D$1</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">グラフ!$B$2:$D$2</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">グラフ!$B$3:$D$3</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">グラフ!$A$2:$A$4</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">グラフ!$B$1</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">グラフ!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">グラフ!$C$1</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">グラフ!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">グラフ!$D$1</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">グラフ!$D$2:$D$4</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>pre</t>
     <phoneticPr fontId="1"/>
@@ -54,6 +56,10 @@
   </si>
   <si>
     <t>edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jw</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -150,7 +156,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>FN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -162,11 +223,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>グラフ!$A$2</c:f>
+              <c:f>グラフ!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BM25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -182,44 +243,43 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>グラフ!$B$1:$D$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>グラフ!$A$2:$A$4</c:f>
+              <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>BM25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>edit</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>グラフ!$B$2:$D$2</c:f>
+              <c:f>グラフ!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.7803468208092457E-2</c:v>
+                  <c:v>6.9118053635609633E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.256502890173409E-2</c:v>
+                  <c:v>0.15316560685651093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.822976878612717E-2</c:v>
+                  <c:v>6.5800387061100363E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-007B-2047-8FDF-9C9A6EA87FFF}"/>
+              <c16:uniqueId val="{00000000-205D-7741-B883-65DBCD7E47A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -228,11 +288,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>グラフ!$A$3</c:f>
+              <c:f>グラフ!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>edit</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -248,44 +308,108 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>グラフ!$B$1:$D$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>グラフ!$A$2:$A$4</c:f>
+              <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>BM25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>edit</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>グラフ!$B$3:$D$3</c:f>
+              <c:f>グラフ!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.14848265895953761</c:v>
+                  <c:v>6.5800387061100363E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7557803468208055E-2</c:v>
+                  <c:v>7.7135747857340342E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7557803468208055E-2</c:v>
+                  <c:v>6.5662150953829101E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-007B-2047-8FDF-9C9A6EA87FFF}"/>
+              <c16:uniqueId val="{00000001-205D-7741-B883-65DBCD7E47A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>グラフ!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BM25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>edit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.5662150953829101E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5662150953829101E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5662150953829101E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-205D-7741-B883-65DBCD7E47A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -299,11 +423,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="223295551"/>
-        <c:axId val="223297247"/>
+        <c:axId val="394964368"/>
+        <c:axId val="394966064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="223295551"/>
+        <c:axId val="394964368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,7 +470,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223297247"/>
+        <c:crossAx val="394966064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -354,7 +478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223297247"/>
+        <c:axId val="394966064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +529,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223295551"/>
+        <c:crossAx val="394964368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1032,23 +1156,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F0910C-0B84-B547-8F22-458EA2E88AF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2CAA500-0ECC-D541-802E-A0605ADE05AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1493,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I2"/>
+      <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1399,28 +1523,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5536</v>
+        <v>7234</v>
       </c>
       <c r="C2">
-        <v>5536</v>
+        <v>7234</v>
       </c>
       <c r="D2">
-        <v>5536</v>
+        <v>7234</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
       <c r="G2">
         <f>1-B3/B2</f>
-        <v>5.7803468208092457E-2</v>
+        <v>6.9118053635609633E-2</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:I2" si="0">1-C3/C2</f>
-        <v>5.256502890173409E-2</v>
+        <v>6.5800387061100363E-2</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>4.822976878612717E-2</v>
+        <v>6.5662150953829101E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1428,18 +1552,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5216</v>
+        <v>6734</v>
       </c>
       <c r="C3">
-        <v>5245</v>
+        <v>6758</v>
       </c>
       <c r="D3">
-        <v>5269</v>
+        <v>6759</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1478,28 +1603,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5536</v>
+        <v>7234</v>
       </c>
       <c r="C2">
-        <v>5536</v>
+        <v>7234</v>
       </c>
       <c r="D2">
-        <v>5536</v>
+        <v>7234</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
       <c r="G2">
         <f>1-B3/B2</f>
-        <v>0.14848265895953761</v>
+        <v>0.15316560685651093</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:I2" si="0">1-C3/C2</f>
-        <v>6.7557803468208055E-2</v>
+        <v>7.7135747857340342E-2</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>6.7557803468208055E-2</v>
+        <v>6.5662150953829101E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1507,13 +1632,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4714</v>
+        <v>6126</v>
       </c>
       <c r="C3">
-        <v>5162</v>
+        <v>6676</v>
       </c>
       <c r="D3">
-        <v>5162</v>
+        <v>6759</v>
       </c>
     </row>
   </sheetData>
@@ -1523,11 +1648,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5365902-8B5A-B749-BDA7-69EBAFB01ACB}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1">
+        <v>0.75</v>
+      </c>
+      <c r="C1">
+        <v>0.5</v>
+      </c>
+      <c r="D1">
+        <v>0.25</v>
+      </c>
+      <c r="G1">
+        <v>0.75</v>
+      </c>
+      <c r="H1">
+        <v>0.5</v>
+      </c>
+      <c r="I1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7234</v>
+      </c>
+      <c r="C2">
+        <v>7234</v>
+      </c>
+      <c r="D2">
+        <v>7234</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>1-B3/B2</f>
+        <v>6.5800387061100363E-2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:I2" si="0">1-C3/C2</f>
+        <v>6.5662150953829101E-2</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>6.5662150953829101E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6758</v>
+      </c>
+      <c r="C3">
+        <v>6759</v>
+      </c>
+      <c r="D3">
+        <v>6759</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DAC2E1-EFA5-794D-982D-74C30784D07B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1548,13 +1752,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>5.7803468208092457E-2</v>
+        <v>6.9118053635609633E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>5.256502890173409E-2</v>
+        <v>6.5800387061100363E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>4.822976878612717E-2</v>
+        <v>6.5662150953829101E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1562,13 +1766,27 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>0.14848265895953761</v>
+        <v>0.15316560685651093</v>
       </c>
       <c r="C3" s="1">
-        <v>6.7557803468208055E-2</v>
+        <v>7.7135747857340342E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>6.7557803468208055E-2</v>
+        <v>6.5662150953829101E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6.5800387061100363E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.5662150953829101E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.5662150953829101E-2</v>
       </c>
     </row>
   </sheetData>
